--- a/CashBook.xlsx
+++ b/CashBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Petty Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D6BFC-37E0-44F0-91EA-80CEB4DA9D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF71136-89DC-4267-A0C3-2B9DCE75D525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0611C143-0CE4-4A30-9DAA-D56FE3BFE41F}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t xml:space="preserve"> Truvisian</t>
   </si>
   <si>
-    <t>Month : January 2020</t>
-  </si>
-  <si>
     <t>Cash Book</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Wages</t>
+  </si>
+  <si>
+    <t>Month : February 2025</t>
   </si>
 </sst>
 </file>
@@ -475,14 +475,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="22"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,33 +529,6 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="22"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,7 +1222,7 @@
       <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1230,7 @@
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="2.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" customWidth="1"/>
@@ -1258,36 +1258,36 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1303,71 +1303,71 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="2">
         <f>E6+E7</f>
         <v>1712</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="41"/>
+      <c r="F5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="30"/>
       <c r="L5" s="4">
         <f>L6+L7</f>
         <v>4000</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3">
         <f>SUM(Table1[[Cash ]])</f>
         <v>763</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="24"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="31"/>
       <c r="L6" s="5">
         <f>SUM(Table1[[Cash  ]])</f>
         <v>3000</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="3">
         <f>SUM(Table1[Bank])</f>
         <v>949</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="24"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="31"/>
       <c r="L7" s="5">
         <f>SUM(Table1[[Bank  ]])</f>
         <v>1000</v>
@@ -1387,50 +1387,50 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="28"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="37"/>
       <c r="F9" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="28"/>
+      <c r="I9" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="37"/>
       <c r="K9" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="29">
-        <v>45292</v>
-      </c>
-      <c r="E10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="38">
+        <v>45323</v>
+      </c>
+      <c r="E10" s="39"/>
       <c r="F10" s="6">
         <f>SUMIF(Table1[Date],D10,Table1[[Cash ]])</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6">
         <f>SUMIF(Table1[Date],D10,Table1[Bank])</f>
         <v>0</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="31">
+      <c r="I10" s="40">
         <v>45293</v>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="6">
         <f>SUMIF(Table1[[Date  ]],I10,Table1[[Cash  ]])</f>
         <v>0</v>
@@ -1443,18 +1443,18 @@
     <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="I13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="I13" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -1498,10 +1498,10 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14">
-        <v>45292</v>
+        <v>45689</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="17">
         <v>200</v>
@@ -1512,7 +1512,7 @@
         <v>45689</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="17">
         <v>3000</v>
@@ -1526,10 +1526,10 @@
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="16">
-        <v>45293</v>
+        <v>45690</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18">
@@ -1540,7 +1540,7 @@
         <v>45703</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="20">
@@ -1554,10 +1554,10 @@
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="16">
-        <v>45294</v>
+        <v>45691</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="17">
         <v>60</v>
@@ -1576,10 +1576,10 @@
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="16">
-        <v>45295</v>
+        <v>45692</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="17">
         <v>80</v>
@@ -1598,10 +1598,10 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="16">
-        <v>45296</v>
+        <v>45693</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="17">
         <v>20</v>
@@ -1620,10 +1620,10 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="16">
-        <v>45297</v>
+        <v>45694</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="17">
         <v>120</v>
@@ -1642,10 +1642,10 @@
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="16">
-        <v>45298</v>
+        <v>45695</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="17">
         <v>249</v>
@@ -1664,10 +1664,10 @@
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="16">
-        <v>45299</v>
+        <v>45696</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17">
@@ -1686,10 +1686,10 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="16">
-        <v>45300</v>
+        <v>45697</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
@@ -1708,10 +1708,10 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="16">
-        <v>45301</v>
+        <v>45698</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="17">
         <v>34</v>
@@ -1727,6 +1727,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="B2:L2"/>
@@ -1743,7 +1744,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
